--- a/TMS_users.xlsx
+++ b/TMS_users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h\Desktop\Tms-user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65759BA-CB6A-4AFD-B3CF-EEB324B5D304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D3C672-6CC8-40B3-B916-5E93ED3E2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="80">
   <si>
     <t>سيد عبد العزيز توفيق مرسي</t>
   </si>
@@ -117,9 +117,6 @@
     <t>المخازن</t>
   </si>
   <si>
-    <t>الخزينة / إدارة المبيعات</t>
-  </si>
-  <si>
     <t>إدارة المشتريات المحلية</t>
   </si>
   <si>
@@ -130,12 +127,6 @@
   </si>
   <si>
     <t>إدارة البنوك / الخزينة</t>
-  </si>
-  <si>
-    <t>إدارة البنوك</t>
-  </si>
-  <si>
-    <t>الخزينة</t>
   </si>
   <si>
     <t>الإنتاج والتخطيط</t>
@@ -712,7 +703,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,40 +724,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -777,16 +768,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -821,10 +812,10 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -859,10 +850,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -897,10 +888,10 @@
         <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -935,10 +926,10 @@
         <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -970,13 +961,13 @@
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -1011,10 +1002,10 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -1049,10 +1040,10 @@
         <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1081,16 +1072,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1125,10 +1116,10 @@
         <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1163,10 +1154,10 @@
         <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1201,10 +1192,10 @@
         <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1239,10 +1230,10 @@
         <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1277,10 +1268,10 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1312,13 +1303,13 @@
         <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1347,16 +1338,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -1388,13 +1379,13 @@
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1426,13 +1417,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1464,13 +1455,13 @@
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1502,13 +1493,13 @@
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1543,10 +1534,10 @@
         <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1575,16 +1566,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -1616,13 +1607,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1654,13 +1645,13 @@
         <v>14</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1692,13 +1683,13 @@
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1730,13 +1721,13 @@
         <v>16</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1768,13 +1759,13 @@
         <v>17</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1806,13 +1797,13 @@
         <v>18</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1847,10 +1838,10 @@
         <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1882,13 +1873,13 @@
         <v>19</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1917,16 +1908,16 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -1958,13 +1949,13 @@
         <v>19</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1996,13 +1987,13 @@
         <v>20</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -2034,13 +2025,13 @@
         <v>21</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -2072,13 +2063,13 @@
         <v>22</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -2113,10 +2104,10 @@
         <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -2145,16 +2136,16 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -2186,13 +2177,13 @@
         <v>23</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -2224,13 +2215,13 @@
         <v>24</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2262,13 +2253,13 @@
         <v>25</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2303,10 +2294,10 @@
         <v>28</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -2335,16 +2326,16 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>

--- a/TMS_users.xlsx
+++ b/TMS_users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h\Desktop\Tms-user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D3C672-6CC8-40B3-B916-5E93ED3E2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EFEC39-B524-497F-8B51-C3A0E65FED12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -319,11 +319,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -359,9 +372,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -420,18 +430,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1796993F-D8F7-4479-A749-60E18C017D41}" name="TmsUsers" displayName="TmsUsers" ref="A1:L65" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18">
   <autoFilter ref="A1:L65" xr:uid="{1796993F-D8F7-4479-A749-60E18C017D41}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F52CDF3D-8FA4-41DF-BEF5-7B1B72F45329}" name="كود الموظف" totalsRowLabel="Total" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{AACEBA1C-E985-4FE0-8CF7-D812D19E9CAD}" name="كود المستخدم" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{0C7C9545-FECC-4856-939C-610BF222F45C}" name="اسم الموظف" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{ABAB17CC-4E7A-4722-9BAD-62C4B0B0B1E2}" name="الإدارة" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{50DF5451-CA2C-43EE-AF7C-27F469AD8751}" name="المسمى" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{8F4B1A9C-BB61-423C-B951-FB9D873693B7}" name="النظام" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{7D158AD2-F64F-49EB-88A7-1F288F00ED87}" name="تهيئة_النظام" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{44CC50D1-3062-40A6-B471-BA89B409DFC2}" name="مدخلات_النظام" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{3B91E2DB-DEE0-4FEB-AED8-6F83417CFD4E}" name="التهيئة_العامة" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{96FDA2D6-1534-4B91-87CF-60B5D56AB737}" name="المدخلات_العامة" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{1E616CB4-D4DD-400E-B907-80D1F730635B}" name="العمليات" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{2E68F790-7A79-464A-9A2B-78821E9BEC42}" name="التقارير" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F52CDF3D-8FA4-41DF-BEF5-7B1B72F45329}" name="كود الموظف" totalsRowLabel="Total" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{AACEBA1C-E985-4FE0-8CF7-D812D19E9CAD}" name="كود المستخدم" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{0C7C9545-FECC-4856-939C-610BF222F45C}" name="اسم الموظف" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{ABAB17CC-4E7A-4722-9BAD-62C4B0B0B1E2}" name="الإدارة" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{50DF5451-CA2C-43EE-AF7C-27F469AD8751}" name="المسمى" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{8F4B1A9C-BB61-423C-B951-FB9D873693B7}" name="النظام" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{7D158AD2-F64F-49EB-88A7-1F288F00ED87}" name="تهيئة_النظام" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{44CC50D1-3062-40A6-B471-BA89B409DFC2}" name="مدخلات_النظام" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{3B91E2DB-DEE0-4FEB-AED8-6F83417CFD4E}" name="التهيئة_العامة" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{96FDA2D6-1534-4B91-87CF-60B5D56AB737}" name="المدخلات_العامة" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{1E616CB4-D4DD-400E-B907-80D1F730635B}" name="العمليات" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{2E68F790-7A79-464A-9A2B-78821E9BEC42}" name="التقارير" totalsRowFunction="count" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -703,12 +713,12 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="30.85546875" style="3" customWidth="1"/>
@@ -723,7 +733,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -761,7 +771,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>1174</v>
       </c>
       <c r="B2" s="1">
@@ -799,7 +809,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>1003</v>
       </c>
       <c r="B3" s="1">
@@ -837,7 +847,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>1043</v>
       </c>
       <c r="B4" s="1">
@@ -875,7 +885,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>1024</v>
       </c>
       <c r="B5" s="1">
@@ -913,7 +923,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>0</v>
       </c>
       <c r="B6" s="1">
@@ -951,7 +961,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>1002</v>
       </c>
       <c r="B7" s="3">
@@ -989,7 +999,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>1009</v>
       </c>
       <c r="B8" s="1">
@@ -1027,7 +1037,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>1001</v>
       </c>
       <c r="B9" s="3">
@@ -1065,7 +1075,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>1174</v>
       </c>
       <c r="B10" s="1">
@@ -1103,7 +1113,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>1012</v>
       </c>
       <c r="B11" s="3">
@@ -1141,7 +1151,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>1061</v>
       </c>
       <c r="B12" s="3">
@@ -1179,7 +1189,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>1058</v>
       </c>
       <c r="B13" s="3">
@@ -1217,7 +1227,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>1072</v>
       </c>
       <c r="B14" s="3">
@@ -1255,7 +1265,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
         <v>1003</v>
       </c>
       <c r="B15" s="1">
@@ -1293,7 +1303,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>1002</v>
       </c>
       <c r="B16" s="3">
@@ -1331,7 +1341,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>1174</v>
       </c>
       <c r="B17" s="1">
@@ -1369,7 +1379,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>1008</v>
       </c>
       <c r="B18" s="3">
@@ -1407,7 +1417,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>1010</v>
       </c>
       <c r="B19" s="3">
@@ -1445,7 +1455,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>1160</v>
       </c>
       <c r="B20" s="3">
@@ -1483,7 +1493,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>1159</v>
       </c>
       <c r="B21" s="3">
@@ -1521,7 +1531,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="5">
         <v>1003</v>
       </c>
       <c r="B22" s="1">
@@ -1559,7 +1569,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="5">
         <v>1174</v>
       </c>
       <c r="B23" s="1">
@@ -1597,7 +1607,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>1002</v>
       </c>
       <c r="B24" s="3">
@@ -1635,7 +1645,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>0</v>
       </c>
       <c r="B25" s="3">
@@ -1673,7 +1683,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>1020</v>
       </c>
       <c r="B26" s="3">
@@ -1711,7 +1721,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>1051</v>
       </c>
       <c r="B27" s="3">
@@ -1749,7 +1759,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <v>1052</v>
       </c>
       <c r="B28" s="3">
@@ -1787,7 +1797,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="6">
         <v>1044</v>
       </c>
       <c r="B29" s="3">
@@ -1825,7 +1835,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="5">
         <v>1003</v>
       </c>
       <c r="B30" s="1">
@@ -1863,7 +1873,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <v>1002</v>
       </c>
       <c r="B31" s="3">
@@ -1901,7 +1911,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="5">
         <v>1174</v>
       </c>
       <c r="B32" s="1">
@@ -1939,7 +1949,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="6">
         <v>1002</v>
       </c>
       <c r="B33" s="3">
@@ -1977,7 +1987,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="6">
         <v>1011</v>
       </c>
       <c r="B34" s="3">
@@ -2015,7 +2025,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="6">
         <v>1035</v>
       </c>
       <c r="B35" s="3">
@@ -2053,7 +2063,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="6">
         <v>1031</v>
       </c>
       <c r="B36" s="3">
@@ -2091,7 +2101,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="5">
         <v>1003</v>
       </c>
       <c r="B37" s="1">
@@ -2129,7 +2139,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="5">
         <v>1174</v>
       </c>
       <c r="B38" s="1">
@@ -2167,7 +2177,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="6">
         <v>1004</v>
       </c>
       <c r="B39" s="3">
@@ -2205,7 +2215,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="6">
         <v>1017</v>
       </c>
       <c r="B40" s="3">
@@ -2243,7 +2253,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="6">
         <v>1016</v>
       </c>
       <c r="B41" s="3">
@@ -2281,7 +2291,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="6">
         <v>1001</v>
       </c>
       <c r="B42" s="3">
@@ -2319,7 +2329,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="5">
         <v>1174</v>
       </c>
       <c r="B43" s="1">
